--- a/data/trans_bre/P19C04-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C04-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P19C04-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C04-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,94</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,36</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-24,23%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,12%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,97%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-12,12; 2,89</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-13,55; 0,74</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-8,44; 1,38</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-49,26; 18,22</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,48; 4,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,09; 12,63</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,2</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,38</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,46</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,95%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,97%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,36; 0,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,48; -4,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,92; -0,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,92; 3,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,94; 4,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,43; -17,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,42; 0,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,79; 70,81</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,67</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,5%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,2%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,46%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,39%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,19; -2,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,62; -0,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,54; 1,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,02; 2,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,24; -15,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,47; -2,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,9; 19,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,03; 16,15</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,34</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,04</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,81</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,49</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,52%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,41%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,62; 0,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,08; -4,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,57; -3,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,38; -1,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,82; 8,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,44; -17,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,48; -17,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,67; -11,7</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,53</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,08</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,4%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,71%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,68%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,55%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,31; 1,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,91; 2,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,21; 8,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,41; -1,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,09; 10,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,83; 10,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,69; 74,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,65; -8,89</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,42</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,21</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,01</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,54%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,33%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,35%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,7%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,79; 1,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,68; -1,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,07; -0,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,6; 5,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,98; 9,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,1; -5,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,88; -3,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,2; 31,05</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,29</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,21</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,2</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,93%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,28%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,76%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,26%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,14; 0,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,78; -2,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,51; 1,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,81; -0,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,46; 2,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,2; -15,3</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,15; 9,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,02; -4,89</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,35</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,6</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,05%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,18%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,17%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,14%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,59; -0,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,36; 2,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,38; 0,76</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,8; -4,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,76; -5,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,88; 20,42</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,76; 5,41</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,86; -26,88</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,26</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,16</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,83</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,64</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,38%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,99%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,05%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,5%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,41; -3,12</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,42; -5,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,86; -2,82</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,31; -2,99</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,97; -16,54</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,04; -21,28</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,39; -17,49</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,01; -20,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C04-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C04-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-9,97</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,39</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,25%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-23,97%</t>
+          <t>-21,58%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,97; -1,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 1,38</t>
+          <t>-7,8; 1,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,5; -6,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-48,09; 12,63</t>
+          <t>-47,97; 16,12</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>6,53%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 3,86</t>
+          <t>-3,41; 3,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-29,79; 70,81</t>
+          <t>-33,82; 69,22</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,67</t>
+          <t>-2,44</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-14,39%</t>
+          <t>-13,38%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 2,56</t>
+          <t>-7,75; 2,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-37,03; 16,15</t>
+          <t>-36,19; 17,63</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,49</t>
+          <t>-8,1</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-34,49%</t>
+          <t>-35,3%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-40,41%</t>
+          <t>-50,41%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,08; -4,63</t>
+          <t>-17,15; -2,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,38; -1,58</t>
+          <t>-15,38; -2,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,44; -17,93</t>
+          <t>-52,69; -12,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-61,67; -11,7</t>
+          <t>-73,79; -21,75</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-8,08</t>
+          <t>-7,98</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-38,55%</t>
+          <t>-37,92%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,41; -1,68</t>
+          <t>-13,33; -1,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-54,65; -8,89</t>
+          <t>-54,44; -9,29</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-1,7%</t>
+          <t>0,16%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 5,45</t>
+          <t>-5,1; 5,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-24,2; 31,05</t>
+          <t>-22,69; 33,28</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,2</t>
+          <t>-5,14</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-34,26%</t>
+          <t>-41,95%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,81; -0,52</t>
+          <t>-10,95; -0,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-60,02; -4,89</t>
+          <t>-73,48; -10,08</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-8,6</t>
+          <t>-4,16</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-43,14%</t>
+          <t>-26,67%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-12,8; -4,55</t>
+          <t>-11,1; 4,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-55,86; -26,88</t>
+          <t>-50,81; 61,07</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-4,64</t>
+          <t>-3,95</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-29,5%</t>
+          <t>-27,28%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,31; -2,99</t>
+          <t>-6,32; -0,77</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-38,01; -20,2</t>
+          <t>-39,93; -8,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C04-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C04-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,12; 2,89</t>
+          <t>-13,44; 2,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,97; -1,68</t>
+          <t>-18,1; -2,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,55; 0,74</t>
+          <t>-13,85; 1,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 1,76</t>
+          <t>-8,03; 1,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-49,26; 18,22</t>
+          <t>-55,17; 13,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-53,5; -6,36</t>
+          <t>-52,77; -6,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-55,48; 4,57</t>
+          <t>-57,15; 6,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-47,97; 16,12</t>
+          <t>-46,84; 16,99</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 0,88</t>
+          <t>-9,89; 1,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,48; -4,37</t>
+          <t>-16,76; -4,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,92; -0,03</t>
+          <t>-11,08; -0,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 3,88</t>
+          <t>-3,43; 3,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,94; 4,03</t>
+          <t>-37,04; 8,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-51,43; -17,04</t>
+          <t>-53,07; -17,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-51,42; 0,23</t>
+          <t>-52,35; -0,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-33,82; 69,22</t>
+          <t>-33,49; 69,8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,19; -2,95</t>
+          <t>-15,47; -2,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,62; -0,46</t>
+          <t>-14,87; -1,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 1,56</t>
+          <t>-6,88; 2,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 2,76</t>
+          <t>-7,8; 2,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-63,24; -15,7</t>
+          <t>-60,38; -11,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-46,47; -2,93</t>
+          <t>-48,05; -4,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-55,9; 19,76</t>
+          <t>-51,3; 31,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-36,19; 17,63</t>
+          <t>-36,74; 16,49</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,62; 0,87</t>
+          <t>-9,87; 1,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,15; -2,89</t>
+          <t>-16,99; -3,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,57; -3,43</t>
+          <t>-16,07; -3,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,38; -2,71</t>
+          <t>-15,36; -2,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,82; 8,52</t>
+          <t>-52,09; 11,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,69; -12,0</t>
+          <t>-52,27; -14,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-59,48; -17,38</t>
+          <t>-59,88; -19,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-73,79; -21,75</t>
+          <t>-72,77; -22,23</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,31; 1,64</t>
+          <t>-14,2; 3,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,91; 2,15</t>
+          <t>-15,36; 2,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 8,16</t>
+          <t>-9,59; 7,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,33; -1,67</t>
+          <t>-13,67; -2,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-56,09; 10,4</t>
+          <t>-55,5; 20,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-46,83; 10,04</t>
+          <t>-46,85; 8,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-43,69; 74,11</t>
+          <t>-45,45; 66,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-54,44; -9,29</t>
+          <t>-54,79; -13,68</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 1,05</t>
+          <t>-12,67; 1,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,68; -1,4</t>
+          <t>-18,08; -0,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,07; -0,75</t>
+          <t>-15,21; -0,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 5,75</t>
+          <t>-5,41; 5,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-60,98; 9,9</t>
+          <t>-61,67; 10,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-46,1; -5,03</t>
+          <t>-48,16; -2,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-49,88; -3,06</t>
+          <t>-48,01; -2,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-22,69; 33,28</t>
+          <t>-22,94; 35,19</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 0,32</t>
+          <t>-8,96; 1,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,78; -2,79</t>
+          <t>-11,63; -2,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 1,0</t>
+          <t>-7,65; 1,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,95; -0,99</t>
+          <t>-11,76; -1,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-40,46; 2,83</t>
+          <t>-40,67; 7,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-52,2; -15,3</t>
+          <t>-50,83; -14,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-48,15; 9,98</t>
+          <t>-47,28; 11,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-73,48; -10,08</t>
+          <t>-74,86; -11,36</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,59; -0,83</t>
+          <t>-9,5; -0,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 2,86</t>
+          <t>-5,62; 2,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 0,76</t>
+          <t>-6,89; 0,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 4,85</t>
+          <t>-10,86; 5,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-44,76; -5,13</t>
+          <t>-43,68; -4,47</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,88; 20,42</t>
+          <t>-28,99; 18,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-38,76; 5,41</t>
+          <t>-37,16; 6,37</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-50,81; 61,07</t>
+          <t>-50,09; 82,83</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,41; -3,12</t>
+          <t>-7,1; -3,19</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,42; -5,04</t>
+          <t>-9,28; -4,76</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,86; -2,82</t>
+          <t>-7,18; -3,01</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,32; -0,77</t>
+          <t>-6,13; -0,7</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-34,97; -16,54</t>
+          <t>-34,32; -17,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-36,04; -21,28</t>
+          <t>-35,81; -20,37</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-36,39; -17,49</t>
+          <t>-37,62; -17,67</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-39,93; -8,27</t>
+          <t>-39,83; -8,22</t>
         </is>
       </c>
     </row>
